--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.6054992631575</v>
+        <v>284.5454992631575</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2090001106262207</v>
+        <v>0.1580002307891846</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.06495752168237</v>
+        <v>17.93504247831763</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.7297883272261</v>
+        <v>11.6086347173128</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.86770052517324</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>37.34700000000491</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>140.591000000022</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>43.74299999998325</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>149.6780000000363</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.88700000000427</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>43.74299999998002</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>140.5910000000531</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>149.6780000000619</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.651999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
